--- a/data/air_info/西安-成都.xlsx
+++ b/data/air_info/西安-成都.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E3E60-2F52-4946-ABBA-AC403BCEFAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED71D7A-D6DB-4CF2-9313-A058788A21C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>行程时间：1 小时 40 分钟</t>
-  </si>
-  <si>
     <t>川航经济舱Airbus A3203U 6312</t>
   </si>
   <si>
@@ -64,6 +61,10 @@
   </si>
   <si>
     <t>机票价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 40 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -436,25 +437,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,23 +463,22 @@
         <v>0.84375</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>0.91319444444444442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1500,3000)</f>
-        <v>1870</v>
+        <v>1813</v>
       </c>
     </row>
   </sheetData>
